--- a/sI_Excel/RSG Si Workers (2).xlsx
+++ b/sI_Excel/RSG Si Workers (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\sI_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B403D-4707-4CF0-BEA5-92315D5C79BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDEB0F9-3A44-4BC1-8620-D4507381CC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="552" windowWidth="11664" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1576,20 +1576,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="31"/>
-      <name val="Algerian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Algerian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1637,6 +1623,20 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="31"/>
+      <name val="Algerian"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Algerian"/>
+      <family val="5"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1827,76 +1827,76 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2177,8 +2177,8 @@
   <dimension ref="A1:L235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K48" sqref="K48"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10194,5 +10194,6 @@
     <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>